--- a/graphs/Tabelle.xlsx
+++ b/graphs/Tabelle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C368B9-4852-4052-9B64-B1342E61A5B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B25FF8-35E6-4B2F-9B36-0176660FC1D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
-  <si>
-    <t>QMSS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>QSSR</t>
   </si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>ELEMENTI</t>
-  </si>
-  <si>
-    <t>Numero elem.</t>
   </si>
   <si>
     <t>Selection</t>
@@ -79,7 +73,13 @@
     <t>lenTuple</t>
   </si>
   <si>
-    <t>No. Elem.</t>
+    <t>Secondi</t>
+  </si>
+  <si>
+    <t>Range/Size</t>
+  </si>
+  <si>
+    <t>ALGORITMI DI ORDINAMENTO CON LISTA ORDINATA AL CONTRARIO</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -316,11 +316,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -364,6 +395,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,13 +417,132 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -608,250 +760,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
@@ -965,112 +873,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DFC3947-81AF-4D51-85A3-B6B270C201DA}" name="Tabella1" displayName="Tabella1" ref="B15:B23" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DFC3947-81AF-4D51-85A3-B6B270C201DA}" name="Tabella1" displayName="Tabella1" ref="B15:B23" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
   <autoFilter ref="B15:B23" xr:uid="{0B06F88C-76C3-447D-B139-CCC3ECDDB27E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{47EA1AD0-A8FA-428E-95AD-98FAC6D96D7B}" name="No. Elem" totalsRowFunction="count" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{47EA1AD0-A8FA-428E-95AD-98FAC6D96D7B}" name="No. Elem" totalsRowFunction="count" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4B8C197-86B2-4953-A83C-150670C0F5F1}" name="Tabella6" displayName="Tabella6" ref="C15:M23" totalsRowShown="0" dataDxfId="55" headerRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4B8C197-86B2-4953-A83C-150670C0F5F1}" name="Tabella6" displayName="Tabella6" ref="C15:M23" totalsRowShown="0" dataDxfId="43" headerRowBorderDxfId="44">
   <autoFilter ref="C15:M23" xr:uid="{290A176B-3551-4312-81D4-BB9EF1C1ADB6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{45B0D557-6BC8-4E5C-AD91-BE5BECCE00A5}" name="QSS" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{DEBDE176-821F-4141-B4F5-C401604D5704}" name="QSSR" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{D1B5FA52-96E9-4A69-8FEB-42D016077756}" name="QSSD" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{F8DD51E6-3998-4536-B8DA-B34F81D506B9}" name="Selection" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{447ADAB7-6378-478E-BF78-60DB951BC76A}" name="Insertion" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{C38ACACD-9466-4DBC-9AA2-8A4B9502ED7E}" name="Bubble" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{E24B6AD3-E310-4E19-B2CC-40CF25212901}" name="Merge" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{98659B80-C210-457B-917B-6D2828187E44}" name="Quick" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{2DC52786-F0E9-43CD-B6DA-D231ECAEB3C3}" name="Heap" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{CD570C46-EC67-4AD3-B022-5A22C6C2884E}" name="Radix" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{5EEE38FC-0195-4C08-B80A-4F3900C95881}" name="Sort" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{45B0D557-6BC8-4E5C-AD91-BE5BECCE00A5}" name="QSS" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{DEBDE176-821F-4141-B4F5-C401604D5704}" name="QSSR" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D1B5FA52-96E9-4A69-8FEB-42D016077756}" name="QSSD" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F8DD51E6-3998-4536-B8DA-B34F81D506B9}" name="Selection" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{447ADAB7-6378-478E-BF78-60DB951BC76A}" name="Insertion" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{C38ACACD-9466-4DBC-9AA2-8A4B9502ED7E}" name="Bubble" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{E24B6AD3-E310-4E19-B2CC-40CF25212901}" name="Merge" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{98659B80-C210-457B-917B-6D2828187E44}" name="Quick" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{2DC52786-F0E9-43CD-B6DA-D231ECAEB3C3}" name="Heap" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{CD570C46-EC67-4AD3-B022-5A22C6C2884E}" name="Radix" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{5EEE38FC-0195-4C08-B80A-4F3900C95881}" name="Sort" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB587658-0CC6-491E-AA30-4F8F6BB3D1A6}" name="Tabella13" displayName="Tabella13" ref="B27:B35" headerRowDxfId="43" dataDxfId="41" totalsRowDxfId="40" headerRowBorderDxfId="42">
-  <autoFilter ref="B27:B35" xr:uid="{65185344-1280-4EB7-898C-15D9AB0B5E5E}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BEC962FE-E785-44B9-961E-FB9853F99B66}" name="No. Elem" totalsRowFunction="count" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93363D6B-396F-4431-A42C-3BDD626A49B9}" name="Tabella4" displayName="Tabella4" ref="B39:C50" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="B39:C50" xr:uid="{0D4340FA-FBAE-4C20-9639-9241F3955E0F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{65E0D336-2861-448E-858F-DB4D82008BE9}" name="lenTuple"/>
+    <tableColumn id="2" xr3:uid="{20FACF0D-1D82-49E5-B830-CC5616CECBE9}" name="Secondi" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0A788BB6-5A0E-4F00-A440-86B21906894B}" name="Tabella64" displayName="Tabella64" ref="C27:M35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37">
-  <autoFilter ref="C27:M35" xr:uid="{5C68B597-D43D-4226-A64A-5BF3922F8E5C}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1C6D2872-7900-4E12-B52E-DE883AC062E8}" name="QSS" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{2E0D6483-8F99-46DE-9F33-AB301B8C2AE7}" name="QSSR" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{CCC57BFF-2A40-442F-BBFC-ABF6B4C32D8B}" name="QSSD" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{AE6A0A01-5E89-4BF1-AE81-447F4F45BB5F}" name="Selection" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{B77C080F-72EE-4736-825C-0C5C614BB2C5}" name="Insertion" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{1B43EE47-0E5F-4AF3-A61A-ACE9B3D12F3F}" name="Bubble" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{7033D16F-6445-4BAC-8370-A428926E0200}" name="Merge" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{5E5E55D1-C0BD-4878-87F4-859DC2053025}" name="Quick" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{1CD60A90-EA65-4897-BB28-D37DD6F05B5B}" name="Heap" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{2538714B-0304-4BE0-924C-DF2407F9AF69}" name="Radix" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{12F6BB10-E8CD-4A34-9311-1F97D5C63918}" name="Sort" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AE0B5E-9A50-420D-935D-4637CEDC4821}" name="Tabella5" displayName="Tabella5" ref="E39:F50" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="E39:F50" xr:uid="{B024467D-3B82-4714-8EBF-41AD4E7E0F2C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{373923C8-1FB7-4D02-9678-34C3D7405227}" name="lenTuple"/>
+    <tableColumn id="2" xr3:uid="{F11C4056-A3B9-46E0-9CE4-8825D684CC1B}" name="Secondi" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93363D6B-396F-4431-A42C-3BDD626A49B9}" name="Tabella4" displayName="Tabella4" ref="B39:C50" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="B39:C50" xr:uid="{0D4340FA-FBAE-4C20-9639-9241F3955E0F}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{65E0D336-2861-448E-858F-DB4D82008BE9}" name="No. Elem."/>
-    <tableColumn id="2" xr3:uid="{20FACF0D-1D82-49E5-B830-CC5616CECBE9}" name="lenTuple" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1315591-6D60-423C-BCDF-94AFCF06CD4F}" name="Tabella18" displayName="Tabella18" ref="B54:B62" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="23">
+  <autoFilter ref="B54:B62" xr:uid="{EA1211DA-2C04-4F3E-8902-FAC20CD0BD99}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C6ECF6BC-4C51-40DC-BDEF-CFD8275802A2}" name="No. Elem" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AE0B5E-9A50-420D-935D-4637CEDC4821}" name="Tabella5" displayName="Tabella5" ref="E39:F50" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="E39:F50" xr:uid="{B024467D-3B82-4714-8EBF-41AD4E7E0F2C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{373923C8-1FB7-4D02-9678-34C3D7405227}" name="No. Elem."/>
-    <tableColumn id="2" xr3:uid="{F11C4056-A3B9-46E0-9CE4-8825D684CC1B}" name="lenTuple" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{574B2C73-6710-4EC0-9982-A447654E05F3}" name="Tabella69" displayName="Tabella69" ref="C54:M62" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="20">
+  <autoFilter ref="C54:M62" xr:uid="{E135DC35-CE2F-436F-823A-63CE27637D64}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B2996DE3-5277-494F-AAD4-74F2D1CE1F3A}" name="QSS" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E9C40AF2-500A-49C7-AA5F-5A1B2EA844B8}" name="QSSR" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{8EFEA9A6-B8B2-4F87-8A38-BE5F26801FAD}" name="QSSD" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3990E30F-1682-4700-A111-04690764325B}" name="Selection" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{311895BC-5D21-4DD0-8A44-5F6EF0A2A034}" name="Insertion" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{8BCECE62-8189-4CB8-B296-70D319747C35}" name="Bubble" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{30751D24-8E16-4AEC-929F-CB473DC3AF41}" name="Merge" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{307AF6EA-071C-42FF-A37E-4B9E5BA49387}" name="Quick" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{D1D9C4BC-2EAA-47E6-98F8-197263859BBB}" name="Heap" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{04508FD7-BB7F-46E1-A2A2-D483F88B65AF}" name="Radix" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{47E104A7-D674-40C2-9010-D6BE85D96F40}" name="Sort" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1315591-6D60-423C-BCDF-94AFCF06CD4F}" name="Tabella18" displayName="Tabella18" ref="B54:B62" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="16">
-  <autoFilter ref="B54:B62" xr:uid="{EA1211DA-2C04-4F3E-8902-FAC20CD0BD99}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C6ECF6BC-4C51-40DC-BDEF-CFD8275802A2}" name="No. Elem" totalsRowFunction="count" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{055B6FB0-4A16-4C07-B80B-34ACEB36B142}" name="Tabella9" displayName="Tabella9" ref="B65:C73" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="6">
+  <autoFilter ref="B65:C73" xr:uid="{67CEDFF3-51E7-45FD-80FD-1B476C087093}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BA5258EF-4850-438F-96B9-AA7E87F11E0A}" name="Range/Size" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{60A2BDEB-3BCF-4C2C-AD7A-02C27D11BFF8}" name="Secondi" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{574B2C73-6710-4EC0-9982-A447654E05F3}" name="Tabella69" displayName="Tabella69" ref="C54:M62" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="13">
-  <autoFilter ref="C54:M62" xr:uid="{E135DC35-CE2F-436F-823A-63CE27637D64}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B2996DE3-5277-494F-AAD4-74F2D1CE1F3A}" name="QSS" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E9C40AF2-500A-49C7-AA5F-5A1B2EA844B8}" name="QSSR" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8EFEA9A6-B8B2-4F87-8A38-BE5F26801FAD}" name="QSSD" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3990E30F-1682-4700-A111-04690764325B}" name="Selection" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{311895BC-5D21-4DD0-8A44-5F6EF0A2A034}" name="Insertion" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8BCECE62-8189-4CB8-B296-70D319747C35}" name="Bubble" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{30751D24-8E16-4AEC-929F-CB473DC3AF41}" name="Merge" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{307AF6EA-071C-42FF-A37E-4B9E5BA49387}" name="Quick" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{D1D9C4BC-2EAA-47E6-98F8-197263859BBB}" name="Heap" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{04508FD7-BB7F-46E1-A2A2-D483F88B65AF}" name="Radix" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{47E104A7-D674-40C2-9010-D6BE85D96F40}" name="Sort" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C8EF5162-A5C6-4362-BEF4-8743375CA8F8}" name="Tabella10" displayName="Tabella10" ref="E65:F73" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+  <autoFilter ref="E65:F73" xr:uid="{A306B19C-61EE-4835-B247-77AE57BEF90A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CEAAEFE6-73B0-47FF-96FA-4F8629DB8D44}" name="Range/Size"/>
+    <tableColumn id="2" xr3:uid="{F1F5F700-AB9D-4D5C-8ABC-0C190869F55F}" name="Secondi" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1339,18 +1239,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="10" max="18" width="10.6640625" customWidth="1"/>
@@ -1384,9 +1284,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1404,401 +1302,94 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="I5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-      <c r="L5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2500</v>
-      </c>
-      <c r="C6">
-        <v>0.112</v>
-      </c>
-      <c r="D6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="I6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="L6">
-        <v>0.3</v>
-      </c>
-      <c r="M6">
-        <v>1E-3</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.106</v>
-      </c>
-      <c r="E7">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="F7">
-        <v>1.8320000000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="H7" s="5">
-        <v>6.0229999999999997</v>
-      </c>
-      <c r="I7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.125</v>
-      </c>
-      <c r="L7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M7">
-        <v>1E-3</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>7500</v>
-      </c>
-      <c r="C8">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D8">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.496</v>
-      </c>
-      <c r="F8">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="G8">
-        <v>3.3540000000000001</v>
-      </c>
-      <c r="H8" s="5">
-        <v>16.385999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="J8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="L8">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="M8">
-        <v>2E-3</v>
-      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.22</v>
-      </c>
-      <c r="E9">
-        <v>0.68</v>
-      </c>
-      <c r="F9">
-        <v>7.35</v>
-      </c>
-      <c r="G9">
-        <v>5.6189999999999998</v>
-      </c>
-      <c r="H9" s="5">
-        <v>27.983000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="J9">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.318</v>
-      </c>
-      <c r="L9">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="M9">
-        <v>2E-3</v>
-      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>50000</v>
-      </c>
-      <c r="C10">
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="D10">
-        <v>1.216</v>
-      </c>
-      <c r="E10">
-        <v>4.0789999999999997</v>
-      </c>
-      <c r="F10">
-        <v>212.297</v>
-      </c>
-      <c r="G10">
-        <v>174.21600000000001</v>
-      </c>
-      <c r="H10" s="5">
-        <v>781.23400000000004</v>
-      </c>
-      <c r="I10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="K10">
-        <v>1.923</v>
-      </c>
-      <c r="L10">
-        <v>0.7</v>
-      </c>
-      <c r="M10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>75000</v>
-      </c>
-      <c r="C11">
-        <v>4.1449999999999996</v>
-      </c>
-      <c r="D11">
-        <v>2.7269999999999999</v>
-      </c>
-      <c r="E11">
-        <v>8.1069999999999993</v>
-      </c>
-      <c r="F11">
-        <v>519.31100000000004</v>
-      </c>
-      <c r="G11">
-        <v>434.142</v>
-      </c>
-      <c r="H11">
-        <v>1905.2619999999999</v>
-      </c>
-      <c r="I11">
-        <v>1.298</v>
-      </c>
-      <c r="J11">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="K11">
-        <v>3.0640000000000001</v>
-      </c>
-      <c r="L11">
-        <v>1.077</v>
-      </c>
-      <c r="M11">
-        <v>3.4000000000000002E-2</v>
-      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>100000</v>
-      </c>
-      <c r="C12">
-        <v>6.13</v>
-      </c>
-      <c r="D12">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="E12">
-        <v>10.58</v>
-      </c>
-      <c r="F12">
-        <v>923.77</v>
-      </c>
-      <c r="G12">
-        <v>791.31899999999996</v>
-      </c>
-      <c r="H12" s="5">
-        <v>3681.0309999999999</v>
-      </c>
-      <c r="I12">
-        <v>2.6019999999999999</v>
-      </c>
-      <c r="J12">
-        <v>1.409</v>
-      </c>
-      <c r="K12">
-        <v>5.4489999999999998</v>
-      </c>
-      <c r="L12">
-        <v>1.837</v>
-      </c>
-      <c r="M12">
-        <v>7.8E-2</v>
-      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>2</v>
-      </c>
       <c r="F15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="M15" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
@@ -2109,103 +1700,49 @@
       <c r="P24" s="5"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="23">
-        <v>500</v>
-      </c>
-      <c r="C28" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D28" s="15">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E28" s="15">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F28" s="15">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="I28" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J28" s="15">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K28" s="15">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L28" s="15">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M28" s="24">
-        <v>0</v>
-      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="23">
-        <v>2500</v>
-      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2219,9 +1756,7 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="23">
-        <v>5000</v>
-      </c>
+      <c r="B30" s="23"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2235,9 +1770,7 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="23">
-        <v>7500</v>
-      </c>
+      <c r="B31" s="23"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2251,9 +1784,7 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="23">
-        <v>10000</v>
-      </c>
+      <c r="B32" s="23"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2267,9 +1798,7 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="23">
-        <v>50000</v>
-      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -2283,9 +1812,7 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="23">
-        <v>75000</v>
-      </c>
+      <c r="B34" s="23"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2299,9 +1826,7 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="25">
-        <v>100000</v>
-      </c>
+      <c r="B35" s="25"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -2315,30 +1840,30 @@
       <c r="M35" s="26"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>16</v>
+      <c r="B39" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="28">
         <v>1</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="42">
         <v>43.472000000000001</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="28">
         <v>1000</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="42">
         <v>5.0380000000000003</v>
       </c>
     </row>
@@ -2346,13 +1871,13 @@
       <c r="B41" s="27">
         <v>3</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="42">
         <v>19.696000000000002</v>
       </c>
       <c r="E41" s="27">
         <v>2000</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="42">
         <v>5.0190000000000001</v>
       </c>
     </row>
@@ -2360,13 +1885,13 @@
       <c r="B42" s="27">
         <v>5</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="42">
         <v>11.433999999999999</v>
       </c>
       <c r="E42" s="27">
         <v>3500</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="42">
         <v>4.9880000000000004</v>
       </c>
     </row>
@@ -2374,13 +1899,13 @@
       <c r="B43" s="27">
         <v>7</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="42">
         <v>9.3480000000000008</v>
       </c>
       <c r="E43" s="27">
         <v>3750</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="42">
         <v>5.0819999999999999</v>
       </c>
     </row>
@@ -2388,13 +1913,13 @@
       <c r="B44" s="27">
         <v>9</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="42">
         <v>8.4009999999999998</v>
       </c>
       <c r="E44" s="27">
         <v>4000</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="42">
         <v>5.3630000000000004</v>
       </c>
     </row>
@@ -2402,13 +1927,13 @@
       <c r="B45" s="27">
         <v>17</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="42">
         <v>6.6630000000000003</v>
       </c>
       <c r="E45" s="27">
         <v>5000</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="42">
         <v>5.3520000000000003</v>
       </c>
     </row>
@@ -2416,13 +1941,13 @@
       <c r="B46" s="27">
         <v>25</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="42">
         <v>5.9059999999999997</v>
       </c>
       <c r="E46" s="27">
         <v>7500</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="42">
         <v>5.415</v>
       </c>
     </row>
@@ -2430,13 +1955,13 @@
       <c r="B47" s="27">
         <v>50</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="42">
         <v>5.5949999999999998</v>
       </c>
       <c r="E47" s="27">
         <v>10000</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="42">
         <v>5.298</v>
       </c>
     </row>
@@ -2444,13 +1969,13 @@
       <c r="B48" s="27">
         <v>100</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="42">
         <v>5.2960000000000003</v>
       </c>
       <c r="E48" s="27">
         <v>50000</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="42">
         <v>4.9509999999999996</v>
       </c>
     </row>
@@ -2458,13 +1983,13 @@
       <c r="B49" s="27">
         <v>200</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="42">
         <v>5.2050000000000001</v>
       </c>
       <c r="E49" s="27">
         <v>100000</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="42">
         <v>5.49</v>
       </c>
     </row>
@@ -2472,66 +1997,66 @@
       <c r="B50" s="27">
         <v>500</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="43">
         <v>5.04</v>
       </c>
       <c r="E50" s="27"/>
-      <c r="F50" s="38"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>2</v>
-      </c>
       <c r="F54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="I54" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="K54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="L54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="M54" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2539,34 +2064,34 @@
         <v>500</v>
       </c>
       <c r="C55" s="7">
-        <v>2.8000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D55" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E55" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F55" s="7">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G55" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H55" s="7">
-        <v>5.6000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I55" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J55" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K55" s="7">
         <v>0.01</v>
       </c>
       <c r="L55" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M55" s="8">
         <v>0</v>
@@ -2576,38 +2101,38 @@
       <c r="B56" s="13">
         <v>2500</v>
       </c>
-      <c r="C56" s="7">
-        <v>0.112</v>
+      <c r="C56" s="47">
+        <v>0.123</v>
       </c>
       <c r="D56" s="7">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E56" s="7">
-        <v>0.13800000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F56" s="7">
-        <v>0.44400000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G56" s="7">
-        <v>0.33800000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="H56" s="7">
-        <v>1.4830000000000001</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="I56" s="7">
-        <v>2.7E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J56" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K56" s="7">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="L56" s="7">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="M56" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2615,37 +2140,37 @@
         <v>5000</v>
       </c>
       <c r="C57" s="7">
-        <v>0.23200000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="D57" s="7">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="E57" s="7">
-        <v>0.30199999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F57" s="7">
-        <v>1.8320000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="G57" s="7">
-        <v>1.4750000000000001</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="H57" s="7">
-        <v>6.0229999999999997</v>
+        <v>8.4459999999999997</v>
       </c>
       <c r="I57" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J57" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="L57" s="7">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J57" s="7">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="L57" s="7">
-        <v>5.8000000000000003E-2</v>
-      </c>
       <c r="M57" s="8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2653,37 +2178,37 @@
         <v>7500</v>
       </c>
       <c r="C58" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D58" s="7">
-        <v>0.16400000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="E58" s="7">
-        <v>0.496</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="F58" s="7">
-        <v>3.9670000000000001</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="G58" s="7">
-        <v>3.3540000000000001</v>
-      </c>
-      <c r="H58" s="15">
-        <v>16.385999999999999</v>
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="H58" s="47">
+        <v>18.532</v>
       </c>
       <c r="I58" s="7">
-        <v>0.10199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J58" s="7">
-        <v>7.0999999999999994E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="K58" s="7">
-        <v>0.23400000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="L58" s="7">
-        <v>0.10299999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M58" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2691,37 +2216,37 @@
         <v>10000</v>
       </c>
       <c r="C59" s="7">
-        <v>0.45400000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D59" s="7">
-        <v>0.22</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E59" s="7">
-        <v>0.68</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="F59" s="7">
-        <v>7.35</v>
+        <v>7.468</v>
       </c>
       <c r="G59" s="7">
-        <v>5.6189999999999998</v>
-      </c>
-      <c r="H59" s="15">
-        <v>27.983000000000001</v>
+        <v>6.6210000000000004</v>
+      </c>
+      <c r="H59" s="47">
+        <v>32.991999999999997</v>
       </c>
       <c r="I59" s="7">
-        <v>0.13900000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J59" s="7">
-        <v>9.8000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K59" s="7">
-        <v>0.318</v>
+        <v>0.254</v>
       </c>
       <c r="L59" s="7">
-        <v>0.13600000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="M59" s="8">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2729,37 +2254,37 @@
         <v>50000</v>
       </c>
       <c r="C60" s="7">
-        <v>2.4540000000000002</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="D60" s="7">
-        <v>1.216</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E60" s="7">
-        <v>4.0789999999999997</v>
+        <v>3.653</v>
       </c>
       <c r="F60" s="7">
-        <v>212.297</v>
+        <v>183.702</v>
       </c>
       <c r="G60" s="7">
-        <v>174.21600000000001</v>
+        <v>176.95400000000001</v>
       </c>
       <c r="H60" s="15">
-        <v>781.23400000000004</v>
+        <v>848.697</v>
       </c>
       <c r="I60" s="7">
-        <v>0.85499999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="J60" s="7">
-        <v>0.52600000000000002</v>
+        <v>1.018</v>
       </c>
       <c r="K60" s="7">
-        <v>1.923</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="L60" s="7">
-        <v>0.7</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="M60" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2767,37 +2292,37 @@
         <v>75000</v>
       </c>
       <c r="C61" s="7">
-        <v>4.1449999999999996</v>
+        <v>4.0069999999999997</v>
       </c>
       <c r="D61" s="7">
-        <v>2.7269999999999999</v>
+        <v>1.839</v>
       </c>
       <c r="E61" s="7">
-        <v>8.1069999999999993</v>
+        <v>6.25</v>
       </c>
       <c r="F61" s="7">
-        <v>519.31100000000004</v>
+        <v>451.49</v>
       </c>
       <c r="G61" s="7">
-        <v>434.142</v>
+        <v>486.43900000000002</v>
       </c>
       <c r="H61" s="7">
-        <v>1905.2619999999999</v>
+        <v>2385.7719999999999</v>
       </c>
       <c r="I61" s="7">
-        <v>1.298</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J61" s="7">
-        <v>0.78600000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="K61" s="7">
-        <v>3.0640000000000001</v>
+        <v>2.573</v>
       </c>
       <c r="L61" s="7">
-        <v>1.077</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="M61" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2805,38 +2330,160 @@
         <v>100000</v>
       </c>
       <c r="C62" s="16">
-        <v>6.13</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="D62" s="16">
-        <v>3.0019999999999998</v>
+        <v>2.5339999999999998</v>
       </c>
       <c r="E62" s="16">
-        <v>10.58</v>
+        <v>8.2309999999999999</v>
       </c>
       <c r="F62" s="16">
-        <v>923.77</v>
+        <v>823.89</v>
       </c>
       <c r="G62" s="16">
-        <v>791.31899999999996</v>
+        <v>799.28899999999999</v>
       </c>
       <c r="H62" s="17">
-        <v>3681.0309999999999</v>
+        <v>3935.52</v>
       </c>
       <c r="I62" s="16">
-        <v>2.6019999999999999</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="J62" s="16">
-        <v>1.409</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="K62" s="16">
-        <v>5.4489999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="L62" s="16">
-        <v>1.837</v>
+        <v>1.26</v>
       </c>
       <c r="M62" s="18">
-        <v>7.8E-2</v>
-      </c>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="39">
+        <v>1</v>
+      </c>
+      <c r="C66" s="44">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="E66" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="F66" s="44">
+        <v>7.4039999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="29">
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="E67" s="40">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F67" s="29">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="C68" s="29">
+        <v>6.016</v>
+      </c>
+      <c r="E68" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="F68" s="29">
+        <v>8.4039999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="C69" s="29">
+        <v>6.1639999999999997</v>
+      </c>
+      <c r="E69" s="40">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F69" s="29">
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="40">
+        <v>0.35</v>
+      </c>
+      <c r="C70" s="29">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="E70" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="F70" s="29">
+        <v>10.262</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="40">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C71" s="29">
+        <v>6.5469999999999997</v>
+      </c>
+      <c r="E71" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="F71" s="29">
+        <v>11.785</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="C72" s="29">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="E72" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="F72" s="29">
+        <v>14.893000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="41">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C73" s="30">
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="E73" s="41"/>
+      <c r="F73" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/graphs/Tabelle.xlsx
+++ b/graphs/Tabelle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B25FF8-35E6-4B2F-9B36-0176660FC1D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E019D7C7-DD21-48CE-B6C3-EFD613C52689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>QSSR</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>ALGORITMI DI ORDINAMENTO CON LISTA ORDINATA AL CONTRARIO</t>
+  </si>
+  <si>
+    <t>ALGORITMI DI ORDINAMENTO CON LISTA ORDINATA AL 90%</t>
   </si>
 </sst>
 </file>
@@ -399,6 +402,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,20 +429,141 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="66">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -452,6 +585,48 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -472,149 +647,47 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -632,13 +705,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -652,6 +718,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -674,6 +747,21 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -717,6 +805,21 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -873,106 +976,136 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DFC3947-81AF-4D51-85A3-B6B270C201DA}" name="Tabella1" displayName="Tabella1" ref="B15:B23" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DFC3947-81AF-4D51-85A3-B6B270C201DA}" name="Tabella1" displayName="Tabella1" ref="B15:B23" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64">
   <autoFilter ref="B15:B23" xr:uid="{0B06F88C-76C3-447D-B139-CCC3ECDDB27E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{47EA1AD0-A8FA-428E-95AD-98FAC6D96D7B}" name="No. Elem" totalsRowFunction="count" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{47EA1AD0-A8FA-428E-95AD-98FAC6D96D7B}" name="No. Elem" totalsRowFunction="count" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{424F78A2-04C3-402A-BDBA-293FCD12322C}" name="Tabella6913" displayName="Tabella6913" ref="C77:M85" totalsRowShown="0" dataDxfId="12" headerRowBorderDxfId="11">
+  <autoFilter ref="C77:M85" xr:uid="{7E50CD32-5A32-4134-A48C-06E7738667D9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{DB4B4305-11E6-43BE-AC7A-CA59A69356A6}" name="QSS" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E75E162E-0E0E-4041-AF37-6C00251D0E20}" name="QSSR" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1F4042AA-34BF-4904-A907-98EE72B1274F}" name="QSSD" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7EE6A835-1597-45E8-AE8E-7DB2222A33D6}" name="Selection" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{688BD08D-68F0-4B32-B77F-6F84BA2CC856}" name="Insertion" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{83D2AB62-BEB5-4BD5-9681-D4BF14EF1117}" name="Bubble" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6C2D103B-21A9-47A6-BBEE-4E5DB48D7411}" name="Merge" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{35CAEED5-4D46-4B0C-B6A1-5AA965062749}" name="Quick" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1C034648-E8EB-47EF-87E7-AB17E4961EB1}" name="Heap" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{2D13D64A-1107-4E7C-A15B-23AC87EF85D1}" name="Radix" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{B52D5646-C6DB-4FDE-8D7C-AE39CAFBECCB}" name="Sort" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4B8C197-86B2-4953-A83C-150670C0F5F1}" name="Tabella6" displayName="Tabella6" ref="C15:M23" totalsRowShown="0" dataDxfId="43" headerRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4B8C197-86B2-4953-A83C-150670C0F5F1}" name="Tabella6" displayName="Tabella6" ref="C15:M23" totalsRowShown="0" dataDxfId="60" headerRowBorderDxfId="61">
   <autoFilter ref="C15:M23" xr:uid="{290A176B-3551-4312-81D4-BB9EF1C1ADB6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{45B0D557-6BC8-4E5C-AD91-BE5BECCE00A5}" name="QSS" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{DEBDE176-821F-4141-B4F5-C401604D5704}" name="QSSR" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D1B5FA52-96E9-4A69-8FEB-42D016077756}" name="QSSD" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{F8DD51E6-3998-4536-B8DA-B34F81D506B9}" name="Selection" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{447ADAB7-6378-478E-BF78-60DB951BC76A}" name="Insertion" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{C38ACACD-9466-4DBC-9AA2-8A4B9502ED7E}" name="Bubble" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E24B6AD3-E310-4E19-B2CC-40CF25212901}" name="Merge" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{98659B80-C210-457B-917B-6D2828187E44}" name="Quick" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{2DC52786-F0E9-43CD-B6DA-D231ECAEB3C3}" name="Heap" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{CD570C46-EC67-4AD3-B022-5A22C6C2884E}" name="Radix" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{5EEE38FC-0195-4C08-B80A-4F3900C95881}" name="Sort" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{45B0D557-6BC8-4E5C-AD91-BE5BECCE00A5}" name="QSS" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{DEBDE176-821F-4141-B4F5-C401604D5704}" name="QSSR" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{D1B5FA52-96E9-4A69-8FEB-42D016077756}" name="QSSD" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{F8DD51E6-3998-4536-B8DA-B34F81D506B9}" name="Selection" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{447ADAB7-6378-478E-BF78-60DB951BC76A}" name="Insertion" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{C38ACACD-9466-4DBC-9AA2-8A4B9502ED7E}" name="Bubble" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{E24B6AD3-E310-4E19-B2CC-40CF25212901}" name="Merge" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{98659B80-C210-457B-917B-6D2828187E44}" name="Quick" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{2DC52786-F0E9-43CD-B6DA-D231ECAEB3C3}" name="Heap" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{CD570C46-EC67-4AD3-B022-5A22C6C2884E}" name="Radix" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{5EEE38FC-0195-4C08-B80A-4F3900C95881}" name="Sort" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93363D6B-396F-4431-A42C-3BDD626A49B9}" name="Tabella4" displayName="Tabella4" ref="B39:C50" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93363D6B-396F-4431-A42C-3BDD626A49B9}" name="Tabella4" displayName="Tabella4" ref="B39:C50" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="B39:C50" xr:uid="{0D4340FA-FBAE-4C20-9639-9241F3955E0F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{65E0D336-2861-448E-858F-DB4D82008BE9}" name="lenTuple"/>
-    <tableColumn id="2" xr3:uid="{20FACF0D-1D82-49E5-B830-CC5616CECBE9}" name="Secondi" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{20FACF0D-1D82-49E5-B830-CC5616CECBE9}" name="Secondi" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AE0B5E-9A50-420D-935D-4637CEDC4821}" name="Tabella5" displayName="Tabella5" ref="E39:F50" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AE0B5E-9A50-420D-935D-4637CEDC4821}" name="Tabella5" displayName="Tabella5" ref="E39:F50" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="E39:F50" xr:uid="{B024467D-3B82-4714-8EBF-41AD4E7E0F2C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{373923C8-1FB7-4D02-9678-34C3D7405227}" name="lenTuple"/>
-    <tableColumn id="2" xr3:uid="{F11C4056-A3B9-46E0-9CE4-8825D684CC1B}" name="Secondi" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F11C4056-A3B9-46E0-9CE4-8825D684CC1B}" name="Secondi" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1315591-6D60-423C-BCDF-94AFCF06CD4F}" name="Tabella18" displayName="Tabella18" ref="B54:B62" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1315591-6D60-423C-BCDF-94AFCF06CD4F}" name="Tabella18" displayName="Tabella18" ref="B54:B62" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39">
   <autoFilter ref="B54:B62" xr:uid="{EA1211DA-2C04-4F3E-8902-FAC20CD0BD99}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C6ECF6BC-4C51-40DC-BDEF-CFD8275802A2}" name="No. Elem" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{C6ECF6BC-4C51-40DC-BDEF-CFD8275802A2}" name="No. Elem" totalsRowFunction="count" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{574B2C73-6710-4EC0-9982-A447654E05F3}" name="Tabella69" displayName="Tabella69" ref="C54:M62" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{574B2C73-6710-4EC0-9982-A447654E05F3}" name="Tabella69" displayName="Tabella69" ref="C54:M62" totalsRowShown="0" dataDxfId="35" headerRowBorderDxfId="36">
   <autoFilter ref="C54:M62" xr:uid="{E135DC35-CE2F-436F-823A-63CE27637D64}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B2996DE3-5277-494F-AAD4-74F2D1CE1F3A}" name="QSS" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E9C40AF2-500A-49C7-AA5F-5A1B2EA844B8}" name="QSSR" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{8EFEA9A6-B8B2-4F87-8A38-BE5F26801FAD}" name="QSSD" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3990E30F-1682-4700-A111-04690764325B}" name="Selection" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{311895BC-5D21-4DD0-8A44-5F6EF0A2A034}" name="Insertion" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{8BCECE62-8189-4CB8-B296-70D319747C35}" name="Bubble" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{30751D24-8E16-4AEC-929F-CB473DC3AF41}" name="Merge" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{307AF6EA-071C-42FF-A37E-4B9E5BA49387}" name="Quick" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{D1D9C4BC-2EAA-47E6-98F8-197263859BBB}" name="Heap" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{04508FD7-BB7F-46E1-A2A2-D483F88B65AF}" name="Radix" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{47E104A7-D674-40C2-9010-D6BE85D96F40}" name="Sort" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B2996DE3-5277-494F-AAD4-74F2D1CE1F3A}" name="QSS" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{E9C40AF2-500A-49C7-AA5F-5A1B2EA844B8}" name="QSSR" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{8EFEA9A6-B8B2-4F87-8A38-BE5F26801FAD}" name="QSSD" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{3990E30F-1682-4700-A111-04690764325B}" name="Selection" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{311895BC-5D21-4DD0-8A44-5F6EF0A2A034}" name="Insertion" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{8BCECE62-8189-4CB8-B296-70D319747C35}" name="Bubble" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{30751D24-8E16-4AEC-929F-CB473DC3AF41}" name="Merge" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{307AF6EA-071C-42FF-A37E-4B9E5BA49387}" name="Quick" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{D1D9C4BC-2EAA-47E6-98F8-197263859BBB}" name="Heap" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{04508FD7-BB7F-46E1-A2A2-D483F88B65AF}" name="Radix" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{47E104A7-D674-40C2-9010-D6BE85D96F40}" name="Sort" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{055B6FB0-4A16-4C07-B80B-34ACEB36B142}" name="Tabella9" displayName="Tabella9" ref="B65:C73" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{055B6FB0-4A16-4C07-B80B-34ACEB36B142}" name="Tabella9" displayName="Tabella9" ref="B65:C73" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="B65:C73" xr:uid="{67CEDFF3-51E7-45FD-80FD-1B476C087093}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BA5258EF-4850-438F-96B9-AA7E87F11E0A}" name="Range/Size" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{60A2BDEB-3BCF-4C2C-AD7A-02C27D11BFF8}" name="Secondi" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{BA5258EF-4850-438F-96B9-AA7E87F11E0A}" name="Range/Size" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{60A2BDEB-3BCF-4C2C-AD7A-02C27D11BFF8}" name="Secondi" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C8EF5162-A5C6-4362-BEF4-8743375CA8F8}" name="Tabella10" displayName="Tabella10" ref="E65:F73" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C8EF5162-A5C6-4362-BEF4-8743375CA8F8}" name="Tabella10" displayName="Tabella10" ref="E65:F73" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="E65:F73" xr:uid="{A306B19C-61EE-4835-B247-77AE57BEF90A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CEAAEFE6-73B0-47FF-96FA-4F8629DB8D44}" name="Range/Size"/>
-    <tableColumn id="2" xr3:uid="{F1F5F700-AB9D-4D5C-8ABC-0C190869F55F}" name="Secondi" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F1F5F700-AB9D-4D5C-8ABC-0C190869F55F}" name="Secondi" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{160D9044-37FE-4D5B-A846-2528E47B520B}" name="Tabella1812" displayName="Tabella1812" ref="B77:B85" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="14">
+  <autoFilter ref="B77:B85" xr:uid="{E73A3441-5AC3-4BD4-A90C-8F25EB4EC8F2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{89F069A5-1DFA-454D-8207-8CE9A7D6018D}" name="No. Elem" totalsRowFunction="count" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1239,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1340,19 +1473,19 @@
       <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
@@ -1701,17 +1834,17 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
@@ -1857,13 +1990,13 @@
       <c r="B40" s="28">
         <v>1</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="36">
         <v>43.472000000000001</v>
       </c>
       <c r="E40" s="28">
         <v>1000</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="36">
         <v>5.0380000000000003</v>
       </c>
     </row>
@@ -1871,13 +2004,13 @@
       <c r="B41" s="27">
         <v>3</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="36">
         <v>19.696000000000002</v>
       </c>
       <c r="E41" s="27">
         <v>2000</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="36">
         <v>5.0190000000000001</v>
       </c>
     </row>
@@ -1885,13 +2018,13 @@
       <c r="B42" s="27">
         <v>5</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="36">
         <v>11.433999999999999</v>
       </c>
       <c r="E42" s="27">
         <v>3500</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="36">
         <v>4.9880000000000004</v>
       </c>
     </row>
@@ -1899,13 +2032,13 @@
       <c r="B43" s="27">
         <v>7</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="36">
         <v>9.3480000000000008</v>
       </c>
       <c r="E43" s="27">
         <v>3750</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="36">
         <v>5.0819999999999999</v>
       </c>
     </row>
@@ -1913,13 +2046,13 @@
       <c r="B44" s="27">
         <v>9</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="36">
         <v>8.4009999999999998</v>
       </c>
       <c r="E44" s="27">
         <v>4000</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="36">
         <v>5.3630000000000004</v>
       </c>
     </row>
@@ -1927,13 +2060,13 @@
       <c r="B45" s="27">
         <v>17</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="36">
         <v>6.6630000000000003</v>
       </c>
       <c r="E45" s="27">
         <v>5000</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="36">
         <v>5.3520000000000003</v>
       </c>
     </row>
@@ -1941,13 +2074,13 @@
       <c r="B46" s="27">
         <v>25</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="36">
         <v>5.9059999999999997</v>
       </c>
       <c r="E46" s="27">
         <v>7500</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="36">
         <v>5.415</v>
       </c>
     </row>
@@ -1955,13 +2088,13 @@
       <c r="B47" s="27">
         <v>50</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="36">
         <v>5.5949999999999998</v>
       </c>
       <c r="E47" s="27">
         <v>10000</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="36">
         <v>5.298</v>
       </c>
     </row>
@@ -1969,13 +2102,13 @@
       <c r="B48" s="27">
         <v>100</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="36">
         <v>5.2960000000000003</v>
       </c>
       <c r="E48" s="27">
         <v>50000</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="36">
         <v>4.9509999999999996</v>
       </c>
     </row>
@@ -1983,13 +2116,13 @@
       <c r="B49" s="27">
         <v>200</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="36">
         <v>5.2050000000000001</v>
       </c>
       <c r="E49" s="27">
         <v>100000</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="36">
         <v>5.49</v>
       </c>
     </row>
@@ -1997,29 +2130,29 @@
       <c r="B50" s="27">
         <v>500</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="37">
         <v>5.04</v>
       </c>
       <c r="E50" s="27"/>
-      <c r="F50" s="43"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="35"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
@@ -2101,7 +2234,7 @@
       <c r="B56" s="13">
         <v>2500</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="41">
         <v>0.123</v>
       </c>
       <c r="D56" s="7">
@@ -2192,7 +2325,7 @@
       <c r="G58" s="7">
         <v>3.7989999999999999</v>
       </c>
-      <c r="H58" s="47">
+      <c r="H58" s="41">
         <v>18.532</v>
       </c>
       <c r="I58" s="7">
@@ -2230,7 +2363,7 @@
       <c r="G59" s="7">
         <v>6.6210000000000004</v>
       </c>
-      <c r="H59" s="47">
+      <c r="H59" s="41">
         <v>32.991999999999997</v>
       </c>
       <c r="I59" s="7">
@@ -2363,137 +2496,498 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="45" t="s">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="39">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="33">
         <v>1</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="38">
         <v>5.1260000000000003</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="33">
         <v>0.25</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="38">
         <v>7.4039999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="34">
         <v>0.5</v>
       </c>
       <c r="C67" s="29">
         <v>5.6260000000000003</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="34">
         <v>0.22500000000000001</v>
       </c>
       <c r="F67" s="29">
         <v>7.69</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="40">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="34">
         <v>0.4</v>
       </c>
       <c r="C68" s="29">
         <v>6.016</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="34">
         <v>0.2</v>
       </c>
       <c r="F68" s="29">
         <v>8.4039999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="40">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="34">
         <v>0.375</v>
       </c>
       <c r="C69" s="29">
         <v>6.1639999999999997</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="34">
         <v>0.17499999999999999</v>
       </c>
       <c r="F69" s="29">
         <v>9.2249999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="34">
         <v>0.35</v>
       </c>
       <c r="C70" s="29">
         <v>6.3410000000000002</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="34">
         <v>0.15</v>
       </c>
       <c r="F70" s="29">
         <v>10.262</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="40">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="34">
         <v>0.32500000000000001</v>
       </c>
       <c r="C71" s="29">
         <v>6.5469999999999997</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="34">
         <v>0.125</v>
       </c>
       <c r="F71" s="29">
         <v>11.785</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="40">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="34">
         <v>0.3</v>
       </c>
       <c r="C72" s="29">
         <v>6.8040000000000003</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="34">
         <v>0.1</v>
       </c>
       <c r="F72" s="29">
         <v>14.893000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="41">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="35">
         <v>0.27500000000000002</v>
       </c>
       <c r="C73" s="30">
         <v>7.1879999999999997</v>
       </c>
-      <c r="E73" s="41"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="30"/>
     </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="44"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="13">
+        <v>500</v>
+      </c>
+      <c r="C78" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E78" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I78" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J78" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L78" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="13">
+        <v>2500</v>
+      </c>
+      <c r="C79" s="41">
+        <v>0.125</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J79" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K79" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L79" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D80" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="13">
+        <v>7500</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F81" s="7">
+        <v>4</v>
+      </c>
+      <c r="G81" s="7">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="H81" s="41">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I81" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J81" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L81" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F82" s="7">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="G82" s="7">
+        <v>4.4720000000000004</v>
+      </c>
+      <c r="H82" s="41">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="J82" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L82" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M82" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="13">
+        <v>50000</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="E83" s="7">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="F83" s="7">
+        <v>171.86199999999999</v>
+      </c>
+      <c r="G83" s="7">
+        <v>115.77</v>
+      </c>
+      <c r="H83" s="15">
+        <v>46.189</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M83" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="13">
+        <v>75000</v>
+      </c>
+      <c r="C84" s="7">
+        <v>3.78</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="E84" s="7">
+        <v>5.53</v>
+      </c>
+      <c r="F84" s="7">
+        <v>400.46100000000001</v>
+      </c>
+      <c r="G84" s="7">
+        <v>252.352</v>
+      </c>
+      <c r="H84" s="7">
+        <v>108.075</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K84" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="M84" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="14">
+        <v>100000</v>
+      </c>
+      <c r="C85" s="16">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="D85" s="16">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="E85" s="16">
+        <v>9.4239999999999995</v>
+      </c>
+      <c r="F85" s="16">
+        <v>771.678</v>
+      </c>
+      <c r="G85" s="16">
+        <v>530.64200000000005</v>
+      </c>
+      <c r="H85" s="17">
+        <v>204.351</v>
+      </c>
+      <c r="I85" s="16">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="K85" s="16">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="L85" s="16">
+        <v>1.246</v>
+      </c>
+      <c r="M85" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C14:M14"/>
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C76:M76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2502,6 +2996,8 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
